--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillConsumeCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillConsumeCfg.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B0612F-A0DB-4D97-9C3C-63403E4C28EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F611299E-4698-418B-BC8D-C80F1E9D361E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="技能消耗配置表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -153,6 +167,48 @@
   </si>
   <si>
     <t>消耗通用能量点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkill_BreakArmor</t>
+  </si>
+  <si>
+    <t>PlayerSkill_IceBind</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkill_TimeBarrier</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkill_PurifyWater</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkill_Enhance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkill_Silence</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkill_GoblinSummon</t>
+  </si>
+  <si>
+    <t>PlayerSkill_Hellfire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSkill_Blackhole</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>填充满能量需要花费钻石</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResetFullEnergyByCostDiamond</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -299,6 +355,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -319,6 +378,499 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="防御塔"/>
+      <sheetName val="怪物"/>
+      <sheetName val="技能"/>
+      <sheetName val="无限模式"/>
+      <sheetName val="挑战模式"/>
+      <sheetName val="引导"/>
+      <sheetName val="参考"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>id</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>定位</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>效果</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>名称</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>描述</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>输出收益</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>攻击</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>攻速</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>CD</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>弹匣</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>每秒恢复</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>每回合回复</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>解锁价格</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>补充价格</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>解锁条件</v>
+          </cell>
+          <cell r="Q1" t="str">
+            <v>针对对象</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>PlayerSkill_BreakArmor</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>免费-低技巧-泛用机制-补充便宜</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>减甲弹-小范围群体</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>破甲弹</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>伤害敌方并降低护甲</v>
+          </cell>
+          <cell r="F2">
+            <v>1</v>
+          </cell>
+          <cell r="G2">
+            <v>50</v>
+          </cell>
+          <cell r="H2">
+            <v>1</v>
+          </cell>
+          <cell r="I2">
+            <v>0</v>
+          </cell>
+          <cell r="J2">
+            <v>20</v>
+          </cell>
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="L2">
+            <v>7</v>
+          </cell>
+          <cell r="M2">
+            <v>0</v>
+          </cell>
+          <cell r="N2">
+            <v>30</v>
+          </cell>
+          <cell r="O2" t="str">
+            <v>新手引导</v>
+          </cell>
+          <cell r="Q2" t="str">
+            <v>塔/技能</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>PlayerSkill_IceBind</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>免费-中技巧-泛用机制-补充便宜</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>冰弹-中范围冻结</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>冰霜漩涡</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>冻结范围内的所有敌人</v>
+          </cell>
+          <cell r="F3">
+            <v>2</v>
+          </cell>
+          <cell r="G3">
+            <v>50</v>
+          </cell>
+          <cell r="H3">
+            <v>1</v>
+          </cell>
+          <cell r="I3">
+            <v>0</v>
+          </cell>
+          <cell r="J3">
+            <v>3</v>
+          </cell>
+          <cell r="K3">
+            <v>0</v>
+          </cell>
+          <cell r="L3">
+            <v>1</v>
+          </cell>
+          <cell r="M3">
+            <v>0</v>
+          </cell>
+          <cell r="N3">
+            <v>30</v>
+          </cell>
+          <cell r="O3" t="str">
+            <v>挑战第1关</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>PlayerSkill_TimeBarrier</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>免费-高技巧-泛用机制-补充便宜</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>时间结界-大范围减速加速</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>时空结界</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>创造结界，敌人大幅减速，友军大幅加速</v>
+          </cell>
+          <cell r="F4">
+            <v>3</v>
+          </cell>
+          <cell r="G4">
+            <v>50</v>
+          </cell>
+          <cell r="H4">
+            <v>1</v>
+          </cell>
+          <cell r="I4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>1</v>
+          </cell>
+          <cell r="K4">
+            <v>0</v>
+          </cell>
+          <cell r="L4">
+            <v>0.34</v>
+          </cell>
+          <cell r="M4">
+            <v>0</v>
+          </cell>
+          <cell r="N4">
+            <v>30</v>
+          </cell>
+          <cell r="O4" t="str">
+            <v>挑战第2关</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>PlayerSkill_PurifyWater</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>钻石-低技巧-针对性机制-补充中等</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>圣水-小范围驱散</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>净化药水</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>从天上掉落圣水，驱散敌人隐身、护盾等各种加成效果，并造成持续伤害</v>
+          </cell>
+          <cell r="F5">
+            <v>1</v>
+          </cell>
+          <cell r="G5">
+            <v>50</v>
+          </cell>
+          <cell r="H5">
+            <v>1</v>
+          </cell>
+          <cell r="I5">
+            <v>0</v>
+          </cell>
+          <cell r="J5">
+            <v>10</v>
+          </cell>
+          <cell r="K5">
+            <v>0</v>
+          </cell>
+          <cell r="L5">
+            <v>5</v>
+          </cell>
+          <cell r="M5">
+            <v>500</v>
+          </cell>
+          <cell r="N5">
+            <v>100</v>
+          </cell>
+          <cell r="Q5" t="str">
+            <v>怪物</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>PlayerSkill_Enhance</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>钻石-中技巧-针对性机制-补充中等</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>强化药剂-一个友军强化且无敌</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>强化子弹</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>暂时大幅强化一名友军并使其无敌</v>
+          </cell>
+          <cell r="F6">
+            <v>2</v>
+          </cell>
+          <cell r="G6">
+            <v>50</v>
+          </cell>
+          <cell r="H6">
+            <v>1</v>
+          </cell>
+          <cell r="I6">
+            <v>0</v>
+          </cell>
+          <cell r="J6">
+            <v>3</v>
+          </cell>
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+          <cell r="L6">
+            <v>1</v>
+          </cell>
+          <cell r="M6">
+            <v>1000</v>
+          </cell>
+          <cell r="N6">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>PlayerSkill_Silence</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>钻石-高技巧-针对性机制-补充中等</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>魔法阵-大范围沉默dot</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>雷电领域</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>禁止范围内敌人使用任何技能，且造成持续伤害</v>
+          </cell>
+          <cell r="F7">
+            <v>3</v>
+          </cell>
+          <cell r="G7">
+            <v>50</v>
+          </cell>
+          <cell r="H7">
+            <v>1</v>
+          </cell>
+          <cell r="I7">
+            <v>0</v>
+          </cell>
+          <cell r="J7">
+            <v>1</v>
+          </cell>
+          <cell r="K7">
+            <v>0</v>
+          </cell>
+          <cell r="L7">
+            <v>0.34</v>
+          </cell>
+          <cell r="M7">
+            <v>2000</v>
+          </cell>
+          <cell r="N7">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>PlayerSkill_GoblinSummon</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>付费-低技巧-强力泛用机制-补充较贵</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>增援召唤物-随机单体偷钱</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>哥布林召唤</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>召唤一个哥布林在一段时间内偷取敌人金钱</v>
+          </cell>
+          <cell r="F8">
+            <v>1</v>
+          </cell>
+          <cell r="G8">
+            <v>50</v>
+          </cell>
+          <cell r="H8">
+            <v>1</v>
+          </cell>
+          <cell r="I8">
+            <v>0</v>
+          </cell>
+          <cell r="J8">
+            <v>10</v>
+          </cell>
+          <cell r="K8">
+            <v>0</v>
+          </cell>
+          <cell r="L8">
+            <v>5</v>
+          </cell>
+          <cell r="M8">
+            <v>1</v>
+          </cell>
+          <cell r="N8">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>PlayerSkill_Hellfire</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>付费-中技巧-强力泛用机制-补充较贵</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>点燃地面-灼烧范围敌人</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>地狱烈焰</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>降下大范围火焰，并留下火焰灼烧经过的敌人</v>
+          </cell>
+          <cell r="F9">
+            <v>2</v>
+          </cell>
+          <cell r="G9">
+            <v>50</v>
+          </cell>
+          <cell r="H9">
+            <v>1</v>
+          </cell>
+          <cell r="I9">
+            <v>0</v>
+          </cell>
+          <cell r="J9">
+            <v>3</v>
+          </cell>
+          <cell r="K9">
+            <v>0</v>
+          </cell>
+          <cell r="L9">
+            <v>1</v>
+          </cell>
+          <cell r="M9">
+            <v>2</v>
+          </cell>
+          <cell r="N9">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>PlayerSkill_Blackhole</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>付费-高技巧-强力泛用机制-补充较贵</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>黑洞-大范围百分比伤害</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>黑洞</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>持续吸引大片敌人，造成生命上限的百分比伤害</v>
+          </cell>
+          <cell r="F10">
+            <v>3</v>
+          </cell>
+          <cell r="G10">
+            <v>50</v>
+          </cell>
+          <cell r="H10">
+            <v>1</v>
+          </cell>
+          <cell r="I10">
+            <v>0</v>
+          </cell>
+          <cell r="J10">
+            <v>1</v>
+          </cell>
+          <cell r="K10">
+            <v>0</v>
+          </cell>
+          <cell r="L10">
+            <v>0.34</v>
+          </cell>
+          <cell r="M10">
+            <v>4</v>
+          </cell>
+          <cell r="N10">
+            <v>300</v>
+          </cell>
+          <cell r="Q10" t="str">
+            <v>队友</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,11 +1131,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -593,12 +1145,13 @@
     <col min="3" max="3" width="19.77734375" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="8" customWidth="1"/>
     <col min="7" max="7" width="32.77734375" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="8"/>
+    <col min="8" max="8" width="16.44140625" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,8 +1173,11 @@
       <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,8 +1187,9 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -654,8 +1211,11 @@
       <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -665,8 +1225,9 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -688,219 +1249,256 @@
       <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="H5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="9">
+        <f>VLOOKUP(B6,[1]技能!$A:$N,10,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <f>VLOOKUP(B6,[1]技能!$A:$Q,12,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="H6" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="9">
+        <f>VLOOKUP(B7,[1]技能!$A:$N,10,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <f>VLOOKUP(B7,[1]技能!$A:$Q,12,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="9">
+        <f>VLOOKUP(B8,[1]技能!$A:$N,10,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <f>VLOOKUP(B8,[1]技能!$A:$Q,12,FALSE)</f>
+        <v>0.34</v>
+      </c>
+      <c r="H8" s="8">
+        <v>5</v>
+      </c>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="9">
+        <f>VLOOKUP(B9,[1]技能!$A:$N,10,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <f>VLOOKUP(B9,[1]技能!$A:$Q,12,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="H9" s="8">
+        <v>5</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="9">
+        <f>VLOOKUP(B10,[1]技能!$A:$N,10,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <f>VLOOKUP(B10,[1]技能!$A:$Q,12,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>5</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="9">
+        <f>VLOOKUP(B11,[1]技能!$A:$N,10,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <f>VLOOKUP(B11,[1]技能!$A:$Q,12,FALSE)</f>
+        <v>0.34</v>
+      </c>
+      <c r="H11" s="8">
+        <v>5</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="9">
+        <f>VLOOKUP(B12,[1]技能!$A:$N,10,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <f>VLOOKUP(B12,[1]技能!$A:$Q,12,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="H12" s="8">
+        <v>5</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="9">
+        <f>VLOOKUP(B13,[1]技能!$A:$N,10,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <f>VLOOKUP(B13,[1]技能!$A:$Q,12,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="9">
+        <f>VLOOKUP(B14,[1]技能!$A:$N,10,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <f>VLOOKUP(B14,[1]技能!$A:$Q,12,FALSE)</f>
+        <v>0.34</v>
+      </c>
+      <c r="H14" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="7">
-        <v>100</v>
-      </c>
-      <c r="D6" s="7">
-        <v>10</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="7">
-        <v>100</v>
-      </c>
-      <c r="D7" s="7">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="G7" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7">
-        <v>100</v>
-      </c>
-      <c r="D8" s="7">
-        <v>10</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="G8" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="7">
-        <v>120</v>
-      </c>
-      <c r="D9" s="7">
-        <v>11</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="G9" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7">
-        <v>120</v>
-      </c>
-      <c r="D10" s="7">
-        <v>11</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="G10" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="7">
-        <v>120</v>
-      </c>
-      <c r="D11" s="7">
-        <v>11</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="G11" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="7">
-        <v>100</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>10</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="G12" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="7">
-        <v>100</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>10</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="G13" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="7">
-        <v>100</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>10</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="G14" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="7">
-        <v>100</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>15</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="G15" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="C16" s="7">
         <v>100</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
       </c>
       <c r="F16" s="8">
         <v>0.2</v>
@@ -908,25 +1506,261 @@
       <c r="G16" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>100</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
       </c>
       <c r="F17" s="8">
         <v>0.2</v>
       </c>
       <c r="G17" s="7">
         <v>8</v>
+      </c>
+      <c r="H17" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="7">
+        <v>100</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>8</v>
+      </c>
+      <c r="H18" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="7">
+        <v>120</v>
+      </c>
+      <c r="D19" s="7">
+        <v>11</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G19" s="7">
+        <v>8</v>
+      </c>
+      <c r="H19" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="7">
+        <v>120</v>
+      </c>
+      <c r="D20" s="7">
+        <v>11</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G20" s="7">
+        <v>8</v>
+      </c>
+      <c r="H20" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="7">
+        <v>120</v>
+      </c>
+      <c r="D21" s="7">
+        <v>11</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="7">
+        <v>8</v>
+      </c>
+      <c r="H21" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="7">
+        <v>100</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>10</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G22" s="7">
+        <v>8</v>
+      </c>
+      <c r="H22" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="7">
+        <v>100</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>10</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G23" s="7">
+        <v>8</v>
+      </c>
+      <c r="H23" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="7">
+        <v>100</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>10</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G24" s="7">
+        <v>8</v>
+      </c>
+      <c r="H24" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="7">
+        <v>100</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>15</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="7">
+        <v>8</v>
+      </c>
+      <c r="H25" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="7">
+        <v>100</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>15</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G26" s="7">
+        <v>8</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="7">
+        <v>100</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>15</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G27" s="7">
+        <v>8</v>
+      </c>
+      <c r="H27" s="7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillConsumeCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillConsumeCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F611299E-4698-418B-BC8D-C80F1E9D361E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189B8687-0875-49D8-A812-D2EB38236804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="技能消耗配置表" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1135,23 +1124,23 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="32.77734375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="32.75" style="8" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="8" customWidth="1"/>
     <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1166,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +1178,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1215,7 +1204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1227,7 +1216,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1253,7 +1242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>32</v>
       </c>
@@ -1278,7 +1267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>33</v>
       </c>
@@ -1303,7 +1292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>34</v>
       </c>
@@ -1329,7 +1318,7 @@
       </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>35</v>
       </c>
@@ -1356,7 +1345,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>36</v>
       </c>
@@ -1383,7 +1372,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>37</v>
       </c>
@@ -1410,7 +1399,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -1437,7 +1426,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -1462,7 +1451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>40</v>
       </c>
@@ -1487,7 +1476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
@@ -1510,7 +1499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
@@ -1533,7 +1522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
@@ -1556,7 +1545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
@@ -1579,7 +1568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>22</v>
       </c>
@@ -1602,7 +1591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>23</v>
       </c>
@@ -1625,7 +1614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
@@ -1648,7 +1637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
@@ -1671,7 +1660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
         <v>26</v>
       </c>
@@ -1694,7 +1683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>27</v>
       </c>
@@ -1717,7 +1706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>28</v>
       </c>
@@ -1740,7 +1729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>

--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillConsumeCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillConsumeCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189B8687-0875-49D8-A812-D2EB38236804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3ECBD3-4733-4BE7-B7B6-0E31497F3D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,6 +382,7 @@
       <sheetName val="无限模式"/>
       <sheetName val="挑战模式"/>
       <sheetName val="引导"/>
+      <sheetName val="商业化"/>
       <sheetName val="参考"/>
     </sheetNames>
     <sheetDataSet>
@@ -426,7 +427,7 @@
             <v>每回合回复</v>
           </cell>
           <cell r="M1" t="str">
-            <v>解锁价格</v>
+            <v>解锁方式</v>
           </cell>
           <cell r="N1" t="str">
             <v>补充价格</v>
@@ -452,7 +453,7 @@
             <v>破甲弹</v>
           </cell>
           <cell r="E2" t="str">
-            <v>伤害敌方并降低护甲</v>
+            <v>伤害敌方并降低护甲，可破除隐身状态</v>
           </cell>
           <cell r="F2">
             <v>1</v>
@@ -473,13 +474,13 @@
             <v>0</v>
           </cell>
           <cell r="L2">
-            <v>7</v>
-          </cell>
-          <cell r="M2">
-            <v>0</v>
+            <v>5</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>UnLockDefault</v>
           </cell>
           <cell r="N2">
-            <v>30</v>
+            <v>25</v>
           </cell>
           <cell r="O2" t="str">
             <v>新手引导</v>
@@ -525,11 +526,11 @@
           <cell r="L3">
             <v>1</v>
           </cell>
-          <cell r="M3">
-            <v>0</v>
+          <cell r="M3" t="str">
+            <v>UnLockByPVE</v>
           </cell>
           <cell r="N3">
-            <v>30</v>
+            <v>25</v>
           </cell>
           <cell r="O3" t="str">
             <v>挑战第1关</v>
@@ -572,11 +573,11 @@
           <cell r="L4">
             <v>0.34</v>
           </cell>
-          <cell r="M4">
-            <v>0</v>
+          <cell r="M4" t="str">
+            <v>UnLockByPVE</v>
           </cell>
           <cell r="N4">
-            <v>30</v>
+            <v>25</v>
           </cell>
           <cell r="O4" t="str">
             <v>挑战第2关</v>
@@ -619,11 +620,11 @@
           <cell r="L5">
             <v>5</v>
           </cell>
-          <cell r="M5">
-            <v>500</v>
+          <cell r="M5" t="str">
+            <v>UnLockSoon</v>
           </cell>
           <cell r="N5">
-            <v>100</v>
+            <v>25</v>
           </cell>
           <cell r="Q5" t="str">
             <v>怪物</v>
@@ -666,11 +667,11 @@
           <cell r="L6">
             <v>1</v>
           </cell>
-          <cell r="M6">
-            <v>1000</v>
+          <cell r="M6" t="str">
+            <v>UnLockSoon</v>
           </cell>
           <cell r="N6">
-            <v>100</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="7">
@@ -710,11 +711,11 @@
           <cell r="L7">
             <v>0.34</v>
           </cell>
-          <cell r="M7">
-            <v>2000</v>
+          <cell r="M7" t="str">
+            <v>UnLockSoon</v>
           </cell>
           <cell r="N7">
-            <v>100</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="8">
@@ -754,11 +755,11 @@
           <cell r="L8">
             <v>5</v>
           </cell>
-          <cell r="M8">
-            <v>1</v>
+          <cell r="M8" t="str">
+            <v>UnLockSoon</v>
           </cell>
           <cell r="N8">
-            <v>300</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="9">
@@ -798,11 +799,11 @@
           <cell r="L9">
             <v>1</v>
           </cell>
-          <cell r="M9">
-            <v>2</v>
+          <cell r="M9" t="str">
+            <v>UnLockSoon</v>
           </cell>
           <cell r="N9">
-            <v>300</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="10">
@@ -842,11 +843,11 @@
           <cell r="L10">
             <v>0.34</v>
           </cell>
-          <cell r="M10">
-            <v>4</v>
+          <cell r="M10" t="str">
+            <v>UnLockSoon</v>
           </cell>
           <cell r="N10">
-            <v>300</v>
+            <v>25</v>
           </cell>
           <cell r="Q10" t="str">
             <v>队友</v>
@@ -857,6 +858,7 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1124,7 +1126,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1261,10 +1263,11 @@
       </c>
       <c r="G6" s="8">
         <f>VLOOKUP(B6,[1]技能!$A:$Q,12,FALSE)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H6" s="8">
-        <v>5</v>
+        <f>VLOOKUP(B6,[1]技能!$A:$O,14,FALSE)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1289,7 +1292,8 @@
         <v>1</v>
       </c>
       <c r="H7" s="8">
-        <v>5</v>
+        <f>VLOOKUP(B7,[1]技能!$A:$O,14,FALSE)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1314,7 +1318,8 @@
         <v>0.34</v>
       </c>
       <c r="H8" s="8">
-        <v>5</v>
+        <f>VLOOKUP(B8,[1]技能!$A:$O,14,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="K8" s="7"/>
     </row>
@@ -1340,7 +1345,8 @@
         <v>5</v>
       </c>
       <c r="H9" s="8">
-        <v>5</v>
+        <f>VLOOKUP(B9,[1]技能!$A:$O,14,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -1367,7 +1373,8 @@
         <v>1</v>
       </c>
       <c r="H10" s="8">
-        <v>5</v>
+        <f>VLOOKUP(B10,[1]技能!$A:$O,14,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -1394,7 +1401,8 @@
         <v>0.34</v>
       </c>
       <c r="H11" s="8">
-        <v>5</v>
+        <f>VLOOKUP(B11,[1]技能!$A:$O,14,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -1421,7 +1429,8 @@
         <v>5</v>
       </c>
       <c r="H12" s="8">
-        <v>5</v>
+        <f>VLOOKUP(B12,[1]技能!$A:$O,14,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1448,7 +1457,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="8">
-        <v>5</v>
+        <f>VLOOKUP(B13,[1]技能!$A:$O,14,FALSE)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1473,7 +1483,8 @@
         <v>0.34</v>
       </c>
       <c r="H14" s="8">
-        <v>5</v>
+        <f>VLOOKUP(B14,[1]技能!$A:$O,14,FALSE)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">

--- a/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillConsumeCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SkillConfig/SkillConsumeCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SkillConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3ECBD3-4733-4BE7-B7B6-0E31497F3D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1048305A-ABB9-4244-B283-87AF8C09B5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="技能消耗配置表" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>##var</t>
   </si>
@@ -198,6 +198,46 @@
   </si>
   <si>
     <t>ResetFullEnergyByCostDiamond</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜漩涡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>时空结界</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化药水</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化子弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电领域</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林召唤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱烈焰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑洞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助字段</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -377,488 +417,1097 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="防御塔"/>
+      <sheetName val="玩家技能"/>
+      <sheetName val="塔&amp;技能"/>
       <sheetName val="怪物"/>
-      <sheetName val="技能"/>
+      <sheetName val="难度设计"/>
+      <sheetName val="挑战模式"/>
       <sheetName val="无限模式"/>
-      <sheetName val="挑战模式"/>
       <sheetName val="引导"/>
+      <sheetName val="养成"/>
       <sheetName val="商业化"/>
+      <sheetName val="音乐音效"/>
       <sheetName val="参考"/>
+      <sheetName val="工具"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="1">
         <row r="1">
-          <cell r="A1" t="str">
-            <v>id</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>定位</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>效果</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>名称</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>描述</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>输出收益</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>攻击</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>攻速</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>CD</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>弹匣</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>每秒恢复</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>每回合回复</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>解锁方式</v>
-          </cell>
-          <cell r="N1" t="str">
-            <v>补充价格</v>
-          </cell>
-          <cell r="O1" t="str">
-            <v>解锁条件</v>
-          </cell>
-          <cell r="Q1" t="str">
-            <v>针对对象</v>
+          <cell r="A1">
+            <v>1</v>
+          </cell>
+          <cell r="B1">
+            <v>2</v>
+          </cell>
+          <cell r="C1">
+            <v>3</v>
+          </cell>
+          <cell r="D1">
+            <v>4</v>
+          </cell>
+          <cell r="E1">
+            <v>5</v>
+          </cell>
+          <cell r="F1">
+            <v>6</v>
+          </cell>
+          <cell r="G1">
+            <v>7</v>
+          </cell>
+          <cell r="H1">
+            <v>8</v>
+          </cell>
+          <cell r="I1">
+            <v>9</v>
+          </cell>
+          <cell r="J1">
+            <v>10</v>
+          </cell>
+          <cell r="K1">
+            <v>11</v>
+          </cell>
+          <cell r="L1">
+            <v>12</v>
+          </cell>
+          <cell r="M1">
+            <v>13</v>
+          </cell>
+          <cell r="N1">
+            <v>14</v>
+          </cell>
+          <cell r="O1">
+            <v>15</v>
+          </cell>
+          <cell r="P1">
+            <v>16</v>
+          </cell>
+          <cell r="Q1">
+            <v>17</v>
+          </cell>
+          <cell r="R1">
+            <v>18</v>
+          </cell>
+          <cell r="S1">
+            <v>19</v>
+          </cell>
+          <cell r="T1">
+            <v>20</v>
+          </cell>
+          <cell r="U1">
+            <v>21</v>
+          </cell>
+          <cell r="V1">
+            <v>22</v>
+          </cell>
+          <cell r="W1">
+            <v>23</v>
+          </cell>
+          <cell r="X1">
+            <v>24</v>
+          </cell>
+          <cell r="Y1">
+            <v>25</v>
+          </cell>
+          <cell r="Z1">
+            <v>26</v>
+          </cell>
+          <cell r="AA1">
+            <v>27</v>
+          </cell>
+          <cell r="AB1">
+            <v>28</v>
+          </cell>
+          <cell r="AC1">
+            <v>29</v>
+          </cell>
+          <cell r="AD1">
+            <v>30</v>
+          </cell>
+          <cell r="AE1">
+            <v>31</v>
+          </cell>
+          <cell r="AF1">
+            <v>32</v>
+          </cell>
+          <cell r="AG1">
+            <v>33</v>
+          </cell>
+          <cell r="AH1">
+            <v>34</v>
+          </cell>
+          <cell r="AI1">
+            <v>35</v>
+          </cell>
+          <cell r="AJ1">
+            <v>36</v>
+          </cell>
+          <cell r="AK1">
+            <v>37</v>
+          </cell>
+          <cell r="AL1">
+            <v>38</v>
+          </cell>
+          <cell r="AM1">
+            <v>39</v>
+          </cell>
+          <cell r="AN1">
+            <v>40</v>
+          </cell>
+          <cell r="AO1">
+            <v>41</v>
+          </cell>
+          <cell r="AP1">
+            <v>42</v>
+          </cell>
+          <cell r="AQ1">
+            <v>43</v>
+          </cell>
+          <cell r="AR1">
+            <v>44</v>
+          </cell>
+          <cell r="AS1">
+            <v>45</v>
+          </cell>
+          <cell r="AT1">
+            <v>46</v>
+          </cell>
+          <cell r="AU1">
+            <v>47</v>
+          </cell>
+          <cell r="AV1">
+            <v>48</v>
           </cell>
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>PlayerSkill_BreakArmor</v>
+            <v>名称</v>
           </cell>
           <cell r="B2" t="str">
-            <v>免费-低技巧-泛用机制-补充便宜</v>
+            <v>描述</v>
           </cell>
           <cell r="C2" t="str">
-            <v>减甲弹-小范围群体</v>
+            <v>单体/群体</v>
           </cell>
           <cell r="D2" t="str">
-            <v>破甲弹</v>
+            <v>属性</v>
           </cell>
           <cell r="E2" t="str">
-            <v>伤害敌方并降低护甲，可破除隐身状态</v>
-          </cell>
-          <cell r="F2">
-            <v>1</v>
-          </cell>
-          <cell r="G2">
-            <v>50</v>
-          </cell>
-          <cell r="H2">
-            <v>1</v>
-          </cell>
-          <cell r="I2">
-            <v>0</v>
-          </cell>
-          <cell r="J2">
-            <v>20</v>
-          </cell>
-          <cell r="K2">
-            <v>0</v>
-          </cell>
-          <cell r="L2">
-            <v>5</v>
+            <v>检测隐身？</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>检测飞行？</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>天赋1_1</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>参数</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>天赋1_2</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>参数</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>天赋2_1</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>参数</v>
           </cell>
           <cell r="M2" t="str">
-            <v>UnLockDefault</v>
-          </cell>
-          <cell r="N2">
-            <v>25</v>
+            <v>天赋2_2</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>参数</v>
           </cell>
           <cell r="O2" t="str">
-            <v>新手引导</v>
+            <v>天赋3_1</v>
+          </cell>
+          <cell r="P2" t="str">
+            <v>参数</v>
           </cell>
           <cell r="Q2" t="str">
-            <v>塔/技能</v>
+            <v>天赋3_2</v>
+          </cell>
+          <cell r="R2" t="str">
+            <v>参数</v>
+          </cell>
+          <cell r="S2" t="str">
+            <v>天赋4_1</v>
+          </cell>
+          <cell r="T2" t="str">
+            <v>参数</v>
+          </cell>
+          <cell r="U2" t="str">
+            <v>天赋4_2</v>
+          </cell>
+          <cell r="V2" t="str">
+            <v>参数</v>
+          </cell>
+          <cell r="W2" t="str">
+            <v>价格</v>
+          </cell>
+          <cell r="X2" t="str">
+            <v>升2级耗卡</v>
+          </cell>
+          <cell r="Y2" t="str">
+            <v>升3级耗卡</v>
+          </cell>
+          <cell r="Z2" t="str">
+            <v>升4级耗卡</v>
+          </cell>
+          <cell r="AA2" t="str">
+            <v>升5级耗卡</v>
+          </cell>
+          <cell r="AB2" t="str">
+            <v>升2级金币</v>
+          </cell>
+          <cell r="AC2" t="str">
+            <v>升3级金币</v>
+          </cell>
+          <cell r="AD2" t="str">
+            <v>升4级金币</v>
+          </cell>
+          <cell r="AE2" t="str">
+            <v>升5级金币</v>
+          </cell>
+          <cell r="AF2" t="str">
+            <v>攻击</v>
+          </cell>
+          <cell r="AG2" t="str">
+            <v>能量点</v>
+          </cell>
+          <cell r="AH2" t="str">
+            <v>cd（秒）</v>
+          </cell>
+          <cell r="AI2" t="str">
+            <v>cd（回合）</v>
+          </cell>
+          <cell r="AJ2" t="str">
+            <v>伤害范围</v>
+          </cell>
+          <cell r="AK2" t="str">
+            <v>特殊属性1</v>
+          </cell>
+          <cell r="AL2" t="str">
+            <v>参数</v>
+          </cell>
+          <cell r="AM2" t="str">
+            <v>特殊属性2</v>
+          </cell>
+          <cell r="AN2" t="str">
+            <v>参数</v>
+          </cell>
+          <cell r="AO2" t="str">
+            <v>特殊属性3</v>
+          </cell>
+          <cell r="AP2" t="str">
+            <v>参数</v>
+          </cell>
+          <cell r="AQ2" t="str">
+            <v>特殊属性4</v>
+          </cell>
+          <cell r="AR2" t="str">
+            <v>参数</v>
+          </cell>
+          <cell r="AS2" t="str">
+            <v>特殊属性5</v>
+          </cell>
+          <cell r="AT2" t="str">
+            <v>参数</v>
+          </cell>
+          <cell r="AU2" t="str">
+            <v>界面优先级</v>
+          </cell>
+          <cell r="AV2" t="str">
+            <v>补充钻石</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>PlayerSkill_IceBind</v>
+            <v>地狱烈焰</v>
           </cell>
           <cell r="B3" t="str">
-            <v>免费-中技巧-泛用机制-补充便宜</v>
+            <v>常规攻击</v>
           </cell>
           <cell r="C3" t="str">
-            <v>冰弹-中范围冻结</v>
+            <v>群体</v>
           </cell>
           <cell r="D3" t="str">
-            <v>冰霜漩涡</v>
+            <v>魔法</v>
           </cell>
           <cell r="E3" t="str">
-            <v>冻结范围内的所有敌人</v>
-          </cell>
-          <cell r="F3">
-            <v>2</v>
-          </cell>
-          <cell r="G3">
+            <v>√</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>加buff：检测飞行</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>改属性：+攻击</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>改技能：冰冻火焰，减速</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>改技能：点燃敌人</v>
+          </cell>
+          <cell r="O3" t="str">
+            <v>改属性：-cd</v>
+          </cell>
+          <cell r="Q3" t="str">
+            <v>改属性：+攻击</v>
+          </cell>
+          <cell r="S3" t="str">
+            <v>改属性：-cd</v>
+          </cell>
+          <cell r="U3" t="str">
+            <v>改属性：加能量上限</v>
+          </cell>
+          <cell r="W3">
+            <v>100</v>
+          </cell>
+          <cell r="X3">
+            <v>1</v>
+          </cell>
+          <cell r="Y3">
+            <v>1</v>
+          </cell>
+          <cell r="Z3">
+            <v>1</v>
+          </cell>
+          <cell r="AA3">
+            <v>1</v>
+          </cell>
+          <cell r="AB3">
+            <v>100</v>
+          </cell>
+          <cell r="AC3">
+            <v>150</v>
+          </cell>
+          <cell r="AD3">
+            <v>300</v>
+          </cell>
+          <cell r="AE3">
+            <v>600</v>
+          </cell>
+          <cell r="AF3">
+            <v>100</v>
+          </cell>
+          <cell r="AG3">
+            <v>3</v>
+          </cell>
+          <cell r="AH3">
+            <v>1</v>
+          </cell>
+          <cell r="AI3">
+            <v>10</v>
+          </cell>
+          <cell r="AJ3">
+            <v>1</v>
+          </cell>
+          <cell r="AV3">
             <v>50</v>
-          </cell>
-          <cell r="H3">
-            <v>1</v>
-          </cell>
-          <cell r="I3">
-            <v>0</v>
-          </cell>
-          <cell r="J3">
-            <v>3</v>
-          </cell>
-          <cell r="K3">
-            <v>0</v>
-          </cell>
-          <cell r="L3">
-            <v>1</v>
-          </cell>
-          <cell r="M3" t="str">
-            <v>UnLockByPVE</v>
-          </cell>
-          <cell r="N3">
-            <v>25</v>
-          </cell>
-          <cell r="O3" t="str">
-            <v>挑战第1关</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>PlayerSkill_TimeBarrier</v>
+            <v>破甲弹</v>
           </cell>
           <cell r="B4" t="str">
-            <v>免费-高技巧-泛用机制-补充便宜</v>
+            <v>破除物防</v>
           </cell>
           <cell r="C4" t="str">
-            <v>时间结界-大范围减速加速</v>
+            <v>群体</v>
           </cell>
           <cell r="D4" t="str">
-            <v>时空结界</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>创造结界，敌人大幅减速，友军大幅加速</v>
-          </cell>
-          <cell r="F4">
+            <v>物理</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>√</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>加buff：检测隐身</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>改属性：+攻击</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>改技能：物伤增加</v>
+          </cell>
+          <cell r="M4" t="str">
+            <v>改技能：连发，百分比伤害</v>
+          </cell>
+          <cell r="O4" t="str">
+            <v>改属性：-cd</v>
+          </cell>
+          <cell r="Q4" t="str">
+            <v>改属性：+攻击</v>
+          </cell>
+          <cell r="S4" t="str">
+            <v>改属性：-cd</v>
+          </cell>
+          <cell r="U4" t="str">
+            <v>改属性：加能量上限</v>
+          </cell>
+          <cell r="W4">
+            <v>100</v>
+          </cell>
+          <cell r="X4">
+            <v>1</v>
+          </cell>
+          <cell r="Y4">
+            <v>1</v>
+          </cell>
+          <cell r="Z4">
+            <v>1</v>
+          </cell>
+          <cell r="AA4">
+            <v>1</v>
+          </cell>
+          <cell r="AB4">
+            <v>100</v>
+          </cell>
+          <cell r="AC4">
+            <v>150</v>
+          </cell>
+          <cell r="AD4">
+            <v>300</v>
+          </cell>
+          <cell r="AE4">
+            <v>600</v>
+          </cell>
+          <cell r="AF4">
+            <v>100</v>
+          </cell>
+          <cell r="AG4">
             <v>3</v>
           </cell>
-          <cell r="G4">
+          <cell r="AH4">
+            <v>1</v>
+          </cell>
+          <cell r="AI4">
+            <v>10</v>
+          </cell>
+          <cell r="AJ4">
+            <v>1</v>
+          </cell>
+          <cell r="AV4">
             <v>50</v>
-          </cell>
-          <cell r="H4">
-            <v>1</v>
-          </cell>
-          <cell r="I4">
-            <v>0</v>
-          </cell>
-          <cell r="J4">
-            <v>1</v>
-          </cell>
-          <cell r="K4">
-            <v>0</v>
-          </cell>
-          <cell r="L4">
-            <v>0.34</v>
-          </cell>
-          <cell r="M4" t="str">
-            <v>UnLockByPVE</v>
-          </cell>
-          <cell r="N4">
-            <v>25</v>
-          </cell>
-          <cell r="O4" t="str">
-            <v>挑战第2关</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>PlayerSkill_PurifyWater</v>
+            <v>净化药水</v>
           </cell>
           <cell r="B5" t="str">
-            <v>钻石-低技巧-针对性机制-补充中等</v>
+            <v>破除魔防</v>
           </cell>
           <cell r="C5" t="str">
-            <v>圣水-小范围驱散</v>
+            <v>群体</v>
           </cell>
           <cell r="D5" t="str">
-            <v>净化药水</v>
+            <v>魔法</v>
           </cell>
           <cell r="E5" t="str">
-            <v>从天上掉落圣水，驱散敌人隐身、护盾等各种加成效果，并造成持续伤害</v>
-          </cell>
-          <cell r="F5">
-            <v>1</v>
-          </cell>
-          <cell r="G5">
+            <v>√</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>加buff：检测飞行</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>改属性：+攻击</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>改技能：魔伤增加</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>改技能：持续递增伤害</v>
+          </cell>
+          <cell r="O5" t="str">
+            <v>改属性：-cd</v>
+          </cell>
+          <cell r="Q5" t="str">
+            <v>改属性：+攻击</v>
+          </cell>
+          <cell r="S5" t="str">
+            <v>改属性：-cd</v>
+          </cell>
+          <cell r="U5" t="str">
+            <v>改属性：加能量上限</v>
+          </cell>
+          <cell r="W5">
+            <v>100</v>
+          </cell>
+          <cell r="X5">
+            <v>1</v>
+          </cell>
+          <cell r="Y5">
+            <v>1</v>
+          </cell>
+          <cell r="Z5">
+            <v>1</v>
+          </cell>
+          <cell r="AA5">
+            <v>1</v>
+          </cell>
+          <cell r="AB5">
+            <v>100</v>
+          </cell>
+          <cell r="AC5">
+            <v>150</v>
+          </cell>
+          <cell r="AD5">
+            <v>300</v>
+          </cell>
+          <cell r="AE5">
+            <v>600</v>
+          </cell>
+          <cell r="AF5">
+            <v>100</v>
+          </cell>
+          <cell r="AG5">
+            <v>3</v>
+          </cell>
+          <cell r="AH5">
+            <v>1</v>
+          </cell>
+          <cell r="AI5">
+            <v>10</v>
+          </cell>
+          <cell r="AJ5">
+            <v>1</v>
+          </cell>
+          <cell r="AV5">
             <v>50</v>
-          </cell>
-          <cell r="H5">
-            <v>1</v>
-          </cell>
-          <cell r="I5">
-            <v>0</v>
-          </cell>
-          <cell r="J5">
-            <v>10</v>
-          </cell>
-          <cell r="K5">
-            <v>0</v>
-          </cell>
-          <cell r="L5">
-            <v>5</v>
-          </cell>
-          <cell r="M5" t="str">
-            <v>UnLockSoon</v>
-          </cell>
-          <cell r="N5">
-            <v>25</v>
-          </cell>
-          <cell r="Q5" t="str">
-            <v>怪物</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>PlayerSkill_Enhance</v>
+            <v>雷电领域</v>
           </cell>
           <cell r="B6" t="str">
-            <v>钻石-中技巧-针对性机制-补充中等</v>
+            <v>破隐身</v>
           </cell>
           <cell r="C6" t="str">
-            <v>强化药剂-一个友军强化且无敌</v>
+            <v>群体</v>
           </cell>
           <cell r="D6" t="str">
-            <v>强化子弹</v>
+            <v>魔法</v>
           </cell>
           <cell r="E6" t="str">
-            <v>暂时大幅强化一名友军并使其无敌</v>
-          </cell>
-          <cell r="F6">
-            <v>2</v>
-          </cell>
-          <cell r="G6">
+            <v>√</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>加buff：检测飞行</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>改属性：+攻击</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v>改技能：范围变羊</v>
+          </cell>
+          <cell r="M6" t="str">
+            <v>改技能：高伤落雷，削生命上限</v>
+          </cell>
+          <cell r="O6" t="str">
+            <v>改属性：-cd</v>
+          </cell>
+          <cell r="Q6" t="str">
+            <v>改属性：+攻击</v>
+          </cell>
+          <cell r="S6" t="str">
+            <v>改属性：-cd</v>
+          </cell>
+          <cell r="U6" t="str">
+            <v>改属性：加能量上限</v>
+          </cell>
+          <cell r="W6">
+            <v>100</v>
+          </cell>
+          <cell r="X6">
+            <v>1</v>
+          </cell>
+          <cell r="Y6">
+            <v>1</v>
+          </cell>
+          <cell r="Z6">
+            <v>1</v>
+          </cell>
+          <cell r="AA6">
+            <v>1</v>
+          </cell>
+          <cell r="AB6">
+            <v>100</v>
+          </cell>
+          <cell r="AC6">
+            <v>150</v>
+          </cell>
+          <cell r="AD6">
+            <v>300</v>
+          </cell>
+          <cell r="AE6">
+            <v>600</v>
+          </cell>
+          <cell r="AF6">
+            <v>100</v>
+          </cell>
+          <cell r="AG6">
+            <v>3</v>
+          </cell>
+          <cell r="AH6">
+            <v>1</v>
+          </cell>
+          <cell r="AI6">
+            <v>10</v>
+          </cell>
+          <cell r="AJ6">
+            <v>1</v>
+          </cell>
+          <cell r="AV6">
             <v>50</v>
-          </cell>
-          <cell r="H6">
-            <v>1</v>
-          </cell>
-          <cell r="I6">
-            <v>0</v>
-          </cell>
-          <cell r="J6">
-            <v>3</v>
-          </cell>
-          <cell r="K6">
-            <v>0</v>
-          </cell>
-          <cell r="L6">
-            <v>1</v>
-          </cell>
-          <cell r="M6" t="str">
-            <v>UnLockSoon</v>
-          </cell>
-          <cell r="N6">
-            <v>25</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>PlayerSkill_Silence</v>
+            <v>时空结界</v>
           </cell>
           <cell r="B7" t="str">
-            <v>钻石-高技巧-针对性机制-补充中等</v>
+            <v>大范围减速（对群）</v>
           </cell>
           <cell r="C7" t="str">
-            <v>魔法阵-大范围沉默dot</v>
+            <v>群体</v>
           </cell>
           <cell r="D7" t="str">
-            <v>雷电领域</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>禁止范围内敌人使用任何技能，且造成持续伤害</v>
-          </cell>
-          <cell r="F7">
+            <v>魔法</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>√</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>加buff：检测隐身</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>改属性：+攻击</v>
+          </cell>
+          <cell r="K7" t="str">
+            <v>改技能：时间静止</v>
+          </cell>
+          <cell r="M7" t="str">
+            <v>改技能：范围光束爆炸</v>
+          </cell>
+          <cell r="O7" t="str">
+            <v>改属性：-cd</v>
+          </cell>
+          <cell r="Q7" t="str">
+            <v>改属性：+攻击</v>
+          </cell>
+          <cell r="S7" t="str">
+            <v>改属性：-cd</v>
+          </cell>
+          <cell r="U7" t="str">
+            <v>改属性：加能量上限</v>
+          </cell>
+          <cell r="W7">
+            <v>100</v>
+          </cell>
+          <cell r="X7">
+            <v>1</v>
+          </cell>
+          <cell r="Y7">
+            <v>1</v>
+          </cell>
+          <cell r="Z7">
+            <v>1</v>
+          </cell>
+          <cell r="AA7">
+            <v>1</v>
+          </cell>
+          <cell r="AB7">
+            <v>100</v>
+          </cell>
+          <cell r="AC7">
+            <v>150</v>
+          </cell>
+          <cell r="AD7">
+            <v>300</v>
+          </cell>
+          <cell r="AE7">
+            <v>600</v>
+          </cell>
+          <cell r="AF7">
+            <v>100</v>
+          </cell>
+          <cell r="AG7">
             <v>3</v>
           </cell>
-          <cell r="G7">
+          <cell r="AH7">
+            <v>1</v>
+          </cell>
+          <cell r="AI7">
+            <v>10</v>
+          </cell>
+          <cell r="AJ7">
+            <v>1</v>
+          </cell>
+          <cell r="AV7">
             <v>50</v>
-          </cell>
-          <cell r="H7">
-            <v>1</v>
-          </cell>
-          <cell r="I7">
-            <v>0</v>
-          </cell>
-          <cell r="J7">
-            <v>1</v>
-          </cell>
-          <cell r="K7">
-            <v>0</v>
-          </cell>
-          <cell r="L7">
-            <v>0.34</v>
-          </cell>
-          <cell r="M7" t="str">
-            <v>UnLockSoon</v>
-          </cell>
-          <cell r="N7">
-            <v>25</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>PlayerSkill_GoblinSummon</v>
+            <v>冰霜漩涡</v>
           </cell>
           <cell r="B8" t="str">
-            <v>付费-低技巧-强力泛用机制-补充较贵</v>
+            <v>小范围冰冻（对单）</v>
           </cell>
           <cell r="C8" t="str">
-            <v>增援召唤物-随机单体偷钱</v>
+            <v>群体</v>
           </cell>
           <cell r="D8" t="str">
-            <v>哥布林召唤</v>
+            <v>物理</v>
           </cell>
           <cell r="E8" t="str">
-            <v>召唤一个哥布林在一段时间内偷取敌人金钱</v>
-          </cell>
-          <cell r="F8">
-            <v>1</v>
-          </cell>
-          <cell r="G8">
+            <v>√</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>加buff：检测飞行</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>改属性：+攻击</v>
+          </cell>
+          <cell r="K8" t="str">
+            <v>改技能：线形连射</v>
+          </cell>
+          <cell r="M8" t="str">
+            <v>改技能：冰冻爆炸</v>
+          </cell>
+          <cell r="O8" t="str">
+            <v>改属性：-cd</v>
+          </cell>
+          <cell r="Q8" t="str">
+            <v>改属性：+攻击</v>
+          </cell>
+          <cell r="S8" t="str">
+            <v>改属性：-cd</v>
+          </cell>
+          <cell r="U8" t="str">
+            <v>改属性：加能量上限</v>
+          </cell>
+          <cell r="W8">
+            <v>100</v>
+          </cell>
+          <cell r="X8">
+            <v>1</v>
+          </cell>
+          <cell r="Y8">
+            <v>1</v>
+          </cell>
+          <cell r="Z8">
+            <v>1</v>
+          </cell>
+          <cell r="AA8">
+            <v>1</v>
+          </cell>
+          <cell r="AB8">
+            <v>100</v>
+          </cell>
+          <cell r="AC8">
+            <v>150</v>
+          </cell>
+          <cell r="AD8">
+            <v>300</v>
+          </cell>
+          <cell r="AE8">
+            <v>600</v>
+          </cell>
+          <cell r="AF8">
+            <v>100</v>
+          </cell>
+          <cell r="AG8">
+            <v>3</v>
+          </cell>
+          <cell r="AH8">
+            <v>1</v>
+          </cell>
+          <cell r="AI8">
+            <v>10</v>
+          </cell>
+          <cell r="AJ8">
+            <v>1</v>
+          </cell>
+          <cell r="AV8">
             <v>50</v>
-          </cell>
-          <cell r="H8">
-            <v>1</v>
-          </cell>
-          <cell r="I8">
-            <v>0</v>
-          </cell>
-          <cell r="J8">
-            <v>10</v>
-          </cell>
-          <cell r="K8">
-            <v>0</v>
-          </cell>
-          <cell r="L8">
-            <v>5</v>
-          </cell>
-          <cell r="M8" t="str">
-            <v>UnLockSoon</v>
-          </cell>
-          <cell r="N8">
-            <v>25</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>PlayerSkill_Hellfire</v>
+            <v>黑洞</v>
           </cell>
           <cell r="B9" t="str">
-            <v>付费-中技巧-强力泛用机制-补充较贵</v>
+            <v>控制爆发</v>
           </cell>
           <cell r="C9" t="str">
-            <v>点燃地面-灼烧范围敌人</v>
+            <v>群体</v>
           </cell>
           <cell r="D9" t="str">
-            <v>地狱烈焰</v>
+            <v>真实</v>
           </cell>
           <cell r="E9" t="str">
-            <v>降下大范围火焰，并留下火焰灼烧经过的敌人</v>
-          </cell>
-          <cell r="F9">
-            <v>2</v>
-          </cell>
-          <cell r="G9">
+            <v>√</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>加buff：检测飞行</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>改属性：+攻击</v>
+          </cell>
+          <cell r="K9" t="str">
+            <v>改技能：大范围牵引</v>
+          </cell>
+          <cell r="M9" t="str">
+            <v>改技能：百分比伤害</v>
+          </cell>
+          <cell r="O9" t="str">
+            <v>改属性：-cd</v>
+          </cell>
+          <cell r="Q9" t="str">
+            <v>改属性：+攻击</v>
+          </cell>
+          <cell r="S9" t="str">
+            <v>改属性：-cd</v>
+          </cell>
+          <cell r="U9" t="str">
+            <v>改属性：加能量上限</v>
+          </cell>
+          <cell r="W9">
+            <v>100</v>
+          </cell>
+          <cell r="X9">
+            <v>1</v>
+          </cell>
+          <cell r="Y9">
+            <v>1</v>
+          </cell>
+          <cell r="Z9">
+            <v>1</v>
+          </cell>
+          <cell r="AA9">
+            <v>1</v>
+          </cell>
+          <cell r="AB9">
+            <v>100</v>
+          </cell>
+          <cell r="AC9">
+            <v>150</v>
+          </cell>
+          <cell r="AD9">
+            <v>300</v>
+          </cell>
+          <cell r="AE9">
+            <v>600</v>
+          </cell>
+          <cell r="AF9">
+            <v>100</v>
+          </cell>
+          <cell r="AG9">
+            <v>3</v>
+          </cell>
+          <cell r="AH9">
+            <v>1</v>
+          </cell>
+          <cell r="AI9">
+            <v>10</v>
+          </cell>
+          <cell r="AJ9">
+            <v>1</v>
+          </cell>
+          <cell r="AV9">
             <v>50</v>
-          </cell>
-          <cell r="H9">
-            <v>1</v>
-          </cell>
-          <cell r="I9">
-            <v>0</v>
-          </cell>
-          <cell r="J9">
-            <v>3</v>
-          </cell>
-          <cell r="K9">
-            <v>0</v>
-          </cell>
-          <cell r="L9">
-            <v>1</v>
-          </cell>
-          <cell r="M9" t="str">
-            <v>UnLockSoon</v>
-          </cell>
-          <cell r="N9">
-            <v>25</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>PlayerSkill_Blackhole</v>
+            <v>哥布林召唤</v>
           </cell>
           <cell r="B10" t="str">
-            <v>付费-高技巧-强力泛用机制-补充较贵</v>
+            <v>攻击加钱</v>
           </cell>
           <cell r="C10" t="str">
-            <v>黑洞-大范围百分比伤害</v>
+            <v>单体</v>
           </cell>
           <cell r="D10" t="str">
-            <v>黑洞</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>持续吸引大片敌人，造成生命上限的百分比伤害</v>
-          </cell>
-          <cell r="F10">
+            <v>物理</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>√</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>加buff：检测隐身</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>改属性：+攻击</v>
+          </cell>
+          <cell r="K10" t="str">
+            <v>改技能：哥布林军团（群体窃取）</v>
+          </cell>
+          <cell r="M10" t="str">
+            <v>改技能：哥布林将军（高伤）</v>
+          </cell>
+          <cell r="O10" t="str">
+            <v>改属性：-cd</v>
+          </cell>
+          <cell r="Q10" t="str">
+            <v>改属性：+攻击</v>
+          </cell>
+          <cell r="S10" t="str">
+            <v>改属性：-cd</v>
+          </cell>
+          <cell r="U10" t="str">
+            <v>改属性：加能量上限</v>
+          </cell>
+          <cell r="W10">
+            <v>100</v>
+          </cell>
+          <cell r="X10">
+            <v>1</v>
+          </cell>
+          <cell r="Y10">
+            <v>1</v>
+          </cell>
+          <cell r="Z10">
+            <v>1</v>
+          </cell>
+          <cell r="AA10">
+            <v>1</v>
+          </cell>
+          <cell r="AB10">
+            <v>100</v>
+          </cell>
+          <cell r="AC10">
+            <v>150</v>
+          </cell>
+          <cell r="AD10">
+            <v>300</v>
+          </cell>
+          <cell r="AE10">
+            <v>600</v>
+          </cell>
+          <cell r="AF10">
+            <v>100</v>
+          </cell>
+          <cell r="AG10">
             <v>3</v>
           </cell>
-          <cell r="G10">
+          <cell r="AH10">
+            <v>1</v>
+          </cell>
+          <cell r="AI10">
+            <v>10</v>
+          </cell>
+          <cell r="AJ10">
+            <v>1</v>
+          </cell>
+          <cell r="AV10">
             <v>50</v>
           </cell>
-          <cell r="H10">
-            <v>1</v>
-          </cell>
-          <cell r="I10">
-            <v>0</v>
-          </cell>
-          <cell r="J10">
-            <v>1</v>
-          </cell>
-          <cell r="K10">
-            <v>0</v>
-          </cell>
-          <cell r="L10">
-            <v>0.34</v>
-          </cell>
-          <cell r="M10" t="str">
-            <v>UnLockSoon</v>
-          </cell>
-          <cell r="N10">
-            <v>25</v>
-          </cell>
-          <cell r="Q10" t="str">
-            <v>队友</v>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>强化子弹</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>强化任一友军</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>单体</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>/</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>改属性：-cd</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v>改属性：加能量上限</v>
+          </cell>
+          <cell r="K11" t="str">
+            <v>改技能：子弹弹射</v>
+          </cell>
+          <cell r="M11" t="str">
+            <v>改技能：弹射敌人，伤害和减益</v>
+          </cell>
+          <cell r="O11" t="str">
+            <v>改属性：-cd</v>
+          </cell>
+          <cell r="Q11" t="str">
+            <v>改属性：+攻击</v>
+          </cell>
+          <cell r="S11" t="str">
+            <v>改属性：-cd</v>
+          </cell>
+          <cell r="U11" t="str">
+            <v>改属性：加能量上限</v>
+          </cell>
+          <cell r="W11">
+            <v>100</v>
+          </cell>
+          <cell r="X11">
+            <v>1</v>
+          </cell>
+          <cell r="Y11">
+            <v>1</v>
+          </cell>
+          <cell r="Z11">
+            <v>1</v>
+          </cell>
+          <cell r="AA11">
+            <v>1</v>
+          </cell>
+          <cell r="AB11">
+            <v>100</v>
+          </cell>
+          <cell r="AC11">
+            <v>150</v>
+          </cell>
+          <cell r="AD11">
+            <v>300</v>
+          </cell>
+          <cell r="AE11">
+            <v>600</v>
+          </cell>
+          <cell r="AF11">
+            <v>100</v>
+          </cell>
+          <cell r="AG11">
+            <v>3</v>
+          </cell>
+          <cell r="AH11">
+            <v>1</v>
+          </cell>
+          <cell r="AI11">
+            <v>10</v>
+          </cell>
+          <cell r="AJ11">
+            <v>1</v>
+          </cell>
+          <cell r="AV11">
+            <v>50</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1243,14 +1892,17 @@
       <c r="H5" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="I5" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="9">
-        <f>VLOOKUP(B6,[1]技能!$A:$N,10,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(I6,[1]玩家技能!$A:$AU,33,FALSE)</f>
+        <v>3</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
@@ -1259,15 +1911,19 @@
         <v>0</v>
       </c>
       <c r="F6" s="8">
-        <v>0</v>
+        <f>1/VLOOKUP(I6,[1]玩家技能!$A:$AU,34,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="G6" s="8">
-        <f>VLOOKUP(B6,[1]技能!$A:$Q,12,FALSE)</f>
-        <v>5</v>
+        <f>1/VLOOKUP(I6,[1]玩家技能!$A:$AU,35,FALSE)</f>
+        <v>0.1</v>
       </c>
       <c r="H6" s="8">
-        <f>VLOOKUP(B6,[1]技能!$A:$O,14,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(I6,[1]玩家技能!$A:$AV,48,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1275,7 +1931,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="9">
-        <f>VLOOKUP(B7,[1]技能!$A:$N,10,FALSE)</f>
+        <f>VLOOKUP(I7,[1]玩家技能!$A:$AU,33,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D7" s="9">
@@ -1285,15 +1941,19 @@
         <v>0</v>
       </c>
       <c r="F7" s="8">
-        <v>0</v>
+        <f>1/VLOOKUP(I7,[1]玩家技能!$A:$AU,34,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="G7" s="8">
-        <f>VLOOKUP(B7,[1]技能!$A:$Q,12,FALSE)</f>
-        <v>1</v>
+        <f>1/VLOOKUP(I7,[1]玩家技能!$A:$AU,35,FALSE)</f>
+        <v>0.1</v>
       </c>
       <c r="H7" s="8">
-        <f>VLOOKUP(B7,[1]技能!$A:$O,14,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(I7,[1]玩家技能!$A:$AV,48,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1301,8 +1961,8 @@
         <v>34</v>
       </c>
       <c r="C8" s="9">
-        <f>VLOOKUP(B8,[1]技能!$A:$N,10,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(I8,[1]玩家技能!$A:$AU,33,FALSE)</f>
+        <v>3</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
@@ -1311,15 +1971,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="8">
-        <v>0</v>
+        <f>1/VLOOKUP(I8,[1]玩家技能!$A:$AU,34,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="G8" s="8">
-        <f>VLOOKUP(B8,[1]技能!$A:$Q,12,FALSE)</f>
-        <v>0.34</v>
+        <f>1/VLOOKUP(I8,[1]玩家技能!$A:$AU,35,FALSE)</f>
+        <v>0.1</v>
       </c>
       <c r="H8" s="8">
-        <f>VLOOKUP(B8,[1]技能!$A:$O,14,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(I8,[1]玩家技能!$A:$AV,48,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="K8" s="7"/>
     </row>
@@ -1328,8 +1992,8 @@
         <v>35</v>
       </c>
       <c r="C9" s="9">
-        <f>VLOOKUP(B9,[1]技能!$A:$N,10,FALSE)</f>
-        <v>10</v>
+        <f>VLOOKUP(I9,[1]玩家技能!$A:$AU,33,FALSE)</f>
+        <v>3</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
@@ -1338,15 +2002,19 @@
         <v>0</v>
       </c>
       <c r="F9" s="8">
-        <v>0</v>
+        <f>1/VLOOKUP(I9,[1]玩家技能!$A:$AU,34,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="G9" s="8">
-        <f>VLOOKUP(B9,[1]技能!$A:$Q,12,FALSE)</f>
-        <v>5</v>
+        <f>1/VLOOKUP(I9,[1]玩家技能!$A:$AU,35,FALSE)</f>
+        <v>0.1</v>
       </c>
       <c r="H9" s="8">
-        <f>VLOOKUP(B9,[1]技能!$A:$O,14,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(I9,[1]玩家技能!$A:$AV,48,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -1356,7 +2024,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="9">
-        <f>VLOOKUP(B10,[1]技能!$A:$N,10,FALSE)</f>
+        <f>VLOOKUP(I10,[1]玩家技能!$A:$AU,33,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D10" s="9">
@@ -1366,15 +2034,19 @@
         <v>0</v>
       </c>
       <c r="F10" s="8">
-        <v>0</v>
+        <f>1/VLOOKUP(I10,[1]玩家技能!$A:$AU,34,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="G10" s="8">
-        <f>VLOOKUP(B10,[1]技能!$A:$Q,12,FALSE)</f>
-        <v>1</v>
+        <f>1/VLOOKUP(I10,[1]玩家技能!$A:$AU,35,FALSE)</f>
+        <v>0.1</v>
       </c>
       <c r="H10" s="8">
-        <f>VLOOKUP(B10,[1]技能!$A:$O,14,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(I10,[1]玩家技能!$A:$AV,48,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -1384,8 +2056,8 @@
         <v>37</v>
       </c>
       <c r="C11" s="9">
-        <f>VLOOKUP(B11,[1]技能!$A:$N,10,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(I11,[1]玩家技能!$A:$AU,33,FALSE)</f>
+        <v>3</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
@@ -1394,15 +2066,19 @@
         <v>0</v>
       </c>
       <c r="F11" s="8">
-        <v>0</v>
+        <f>1/VLOOKUP(I11,[1]玩家技能!$A:$AU,34,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="G11" s="8">
-        <f>VLOOKUP(B11,[1]技能!$A:$Q,12,FALSE)</f>
-        <v>0.34</v>
+        <f>1/VLOOKUP(I11,[1]玩家技能!$A:$AU,35,FALSE)</f>
+        <v>0.1</v>
       </c>
       <c r="H11" s="8">
-        <f>VLOOKUP(B11,[1]技能!$A:$O,14,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(I11,[1]玩家技能!$A:$AV,48,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -1412,8 +2088,8 @@
         <v>38</v>
       </c>
       <c r="C12" s="9">
-        <f>VLOOKUP(B12,[1]技能!$A:$N,10,FALSE)</f>
-        <v>10</v>
+        <f>VLOOKUP(I12,[1]玩家技能!$A:$AU,33,FALSE)</f>
+        <v>3</v>
       </c>
       <c r="D12" s="9">
         <v>1</v>
@@ -1422,15 +2098,19 @@
         <v>0</v>
       </c>
       <c r="F12" s="8">
-        <v>0</v>
+        <f>1/VLOOKUP(I12,[1]玩家技能!$A:$AU,34,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="G12" s="8">
-        <f>VLOOKUP(B12,[1]技能!$A:$Q,12,FALSE)</f>
-        <v>5</v>
+        <f>1/VLOOKUP(I12,[1]玩家技能!$A:$AU,35,FALSE)</f>
+        <v>0.1</v>
       </c>
       <c r="H12" s="8">
-        <f>VLOOKUP(B12,[1]技能!$A:$O,14,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(I12,[1]玩家技能!$A:$AV,48,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1440,7 +2120,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="9">
-        <f>VLOOKUP(B13,[1]技能!$A:$N,10,FALSE)</f>
+        <f>VLOOKUP(I13,[1]玩家技能!$A:$AU,33,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D13" s="9">
@@ -1450,15 +2130,19 @@
         <v>0</v>
       </c>
       <c r="F13" s="8">
-        <v>0</v>
+        <f>1/VLOOKUP(I13,[1]玩家技能!$A:$AU,34,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="G13" s="8">
-        <f>VLOOKUP(B13,[1]技能!$A:$Q,12,FALSE)</f>
-        <v>1</v>
+        <f>1/VLOOKUP(I13,[1]玩家技能!$A:$AU,35,FALSE)</f>
+        <v>0.1</v>
       </c>
       <c r="H13" s="8">
-        <f>VLOOKUP(B13,[1]技能!$A:$O,14,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(I13,[1]玩家技能!$A:$AV,48,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1466,8 +2150,8 @@
         <v>40</v>
       </c>
       <c r="C14" s="9">
-        <f>VLOOKUP(B14,[1]技能!$A:$N,10,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(I14,[1]玩家技能!$A:$AU,33,FALSE)</f>
+        <v>3</v>
       </c>
       <c r="D14" s="9">
         <v>1</v>
@@ -1476,15 +2160,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="8">
-        <v>0</v>
+        <f>1/VLOOKUP(I14,[1]玩家技能!$A:$AU,34,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="G14" s="8">
-        <f>VLOOKUP(B14,[1]技能!$A:$Q,12,FALSE)</f>
-        <v>0.34</v>
+        <f>1/VLOOKUP(I14,[1]玩家技能!$A:$AU,35,FALSE)</f>
+        <v>0.1</v>
       </c>
       <c r="H14" s="8">
-        <f>VLOOKUP(B14,[1]技能!$A:$O,14,FALSE)</f>
-        <v>25</v>
+        <f>VLOOKUP(I14,[1]玩家技能!$A:$AV,48,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
